--- a/data/indexDataDalily.xlsx
+++ b/data/indexDataDalily.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1337"/>
+  <dimension ref="A1:E1346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25830,13 +25830,184 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>0.0007141</v>
+        <v>0.0045448</v>
       </c>
       <c r="D1337" t="n">
-        <v>24.51171875</v>
+        <v>156</v>
       </c>
       <c r="E1337" t="n">
-        <v>34349.51171875</v>
+        <v>34481</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C1338" t="n">
+        <v>-0.000754</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>-26</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>34455</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>1337</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="C1339" t="n">
+        <v>-0.0128864</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>-444</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>34011</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>1338</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="C1340" t="n">
+        <v>0.0089677</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>305</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>34316</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="C1341" t="n">
+        <v>-0.0107821</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>-370</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>33946</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="C1342" t="n">
+        <v>0.0027691</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>94</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>34040</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="n">
+        <v>1341</v>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="C1343" t="n">
+        <v>-0.009576999999999999</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>-326</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>33714</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="C1344" t="n">
+        <v>0.0014831</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>33764</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>1343</v>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="C1345" t="n">
+        <v>0.0056273</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>190</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>33954</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="n">
+        <v>1344</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="C1346" t="n">
+        <v>-0.0180727</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>-613.640625</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>33340.359375</v>
       </c>
     </row>
   </sheetData>
